--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cd200-Cd200r1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cd200-Cd200r1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>63.24146666666667</v>
+        <v>38.84293433333333</v>
       </c>
       <c r="H2">
-        <v>189.7244</v>
+        <v>116.528803</v>
       </c>
       <c r="I2">
-        <v>0.6912608225927421</v>
+        <v>0.4759825783603507</v>
       </c>
       <c r="J2">
-        <v>0.7565855924568045</v>
+        <v>0.5627959792472441</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.694494000000001</v>
+        <v>8.366847333333332</v>
       </c>
       <c r="N2">
-        <v>29.083482</v>
+        <v>25.100542</v>
       </c>
       <c r="O2">
-        <v>0.4508175825708872</v>
+        <v>0.3599008094639652</v>
       </c>
       <c r="P2">
-        <v>0.4523680639381478</v>
+        <v>0.3608281410662089</v>
       </c>
       <c r="Q2">
-        <v>613.0940191512001</v>
+        <v>324.9929015456917</v>
       </c>
       <c r="R2">
-        <v>5517.8461723608</v>
+        <v>2924.936113911225</v>
       </c>
       <c r="S2">
-        <v>0.3116325329672229</v>
+        <v>0.1713065152426355</v>
       </c>
       <c r="T2">
-        <v>0.3422551596631812</v>
+        <v>0.2030726269913198</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,46 +602,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>63.24146666666667</v>
+        <v>38.84293433333333</v>
       </c>
       <c r="H3">
-        <v>189.7244</v>
+        <v>116.528803</v>
       </c>
       <c r="I3">
-        <v>0.6912608225927421</v>
+        <v>0.4759825783603507</v>
       </c>
       <c r="J3">
-        <v>0.7565855924568045</v>
+        <v>0.5627959792472441</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.221116</v>
+        <v>0.17924</v>
       </c>
       <c r="N3">
-        <v>0.442232</v>
+        <v>0.35848</v>
       </c>
       <c r="O3">
-        <v>0.01028243254240441</v>
+        <v>0.007710027268134825</v>
       </c>
       <c r="P3">
-        <v>0.006878531038735148</v>
+        <v>0.005153262109217186</v>
       </c>
       <c r="Q3">
-        <v>13.98370014346667</v>
+        <v>6.962207549906665</v>
       </c>
       <c r="R3">
-        <v>83.90220086079999</v>
+        <v>41.77324529944</v>
       </c>
       <c r="S3">
-        <v>0.007107842777516852</v>
+        <v>0.003669838658315425</v>
       </c>
       <c r="T3">
-        <v>0.00520419748117395</v>
+        <v>0.002900235195074605</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>63.24146666666667</v>
+        <v>38.84293433333333</v>
       </c>
       <c r="H4">
-        <v>189.7244</v>
+        <v>116.528803</v>
       </c>
       <c r="I4">
-        <v>0.6912608225927421</v>
+        <v>0.4759825783603507</v>
       </c>
       <c r="J4">
-        <v>0.7565855924568045</v>
+        <v>0.5627959792472441</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.58864</v>
+        <v>14.70156066666667</v>
       </c>
       <c r="N4">
-        <v>34.76592</v>
+        <v>44.104682</v>
       </c>
       <c r="O4">
-        <v>0.5388999848867084</v>
+        <v>0.6323891632679</v>
       </c>
       <c r="P4">
-        <v>0.540753405023117</v>
+        <v>0.6340185968245738</v>
       </c>
       <c r="Q4">
-        <v>732.882590272</v>
+        <v>571.0517555728494</v>
       </c>
       <c r="R4">
-        <v>6595.943312448</v>
+        <v>5139.465800155645</v>
       </c>
       <c r="S4">
-        <v>0.3725204468480024</v>
+        <v>0.3010062244593998</v>
       </c>
       <c r="T4">
-        <v>0.4091262353124493</v>
+        <v>0.3568231170608497</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.977970666666667</v>
+        <v>2.977970666666666</v>
       </c>
       <c r="H5">
-        <v>8.933912000000001</v>
+        <v>8.933911999999999</v>
       </c>
       <c r="I5">
-        <v>0.03255070701549811</v>
+        <v>0.03649214922944397</v>
       </c>
       <c r="J5">
-        <v>0.03562677812383096</v>
+        <v>0.043147870939245</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.694494000000001</v>
+        <v>8.366847333333332</v>
       </c>
       <c r="N5">
-        <v>29.083482</v>
+        <v>25.100542</v>
       </c>
       <c r="O5">
-        <v>0.4508175825708872</v>
+        <v>0.3599008094639652</v>
       </c>
       <c r="P5">
-        <v>0.4523680639381478</v>
+        <v>0.3608281410662089</v>
       </c>
       <c r="Q5">
-        <v>28.86991876017601</v>
+        <v>24.91622593114488</v>
       </c>
       <c r="R5">
-        <v>259.8292688415841</v>
+        <v>224.246033380304</v>
       </c>
       <c r="S5">
-        <v>0.01467443104770008</v>
+        <v>0.0131335540467567</v>
       </c>
       <c r="T5">
-        <v>0.01611641664423137</v>
+        <v>0.01556896606197247</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.977970666666667</v>
+        <v>2.977970666666666</v>
       </c>
       <c r="H6">
-        <v>8.933912000000001</v>
+        <v>8.933911999999999</v>
       </c>
       <c r="I6">
-        <v>0.03255070701549811</v>
+        <v>0.03649214922944397</v>
       </c>
       <c r="J6">
-        <v>0.03562677812383096</v>
+        <v>0.043147870939245</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.221116</v>
+        <v>0.17924</v>
       </c>
       <c r="N6">
-        <v>0.442232</v>
+        <v>0.35848</v>
       </c>
       <c r="O6">
-        <v>0.01028243254240441</v>
+        <v>0.007710027268134825</v>
       </c>
       <c r="P6">
-        <v>0.006878531038735148</v>
+        <v>0.005153262109217186</v>
       </c>
       <c r="Q6">
-        <v>0.6584769619306667</v>
+        <v>0.5337714622933333</v>
       </c>
       <c r="R6">
-        <v>3.950861771584</v>
+        <v>3.20262877376</v>
       </c>
       <c r="S6">
-        <v>0.0003347004490944292</v>
+        <v>0.0002813554656318583</v>
       </c>
       <c r="T6">
-        <v>0.0002450598991349017</v>
+        <v>0.0002223522884046046</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.977970666666667</v>
+        <v>2.977970666666666</v>
       </c>
       <c r="H7">
-        <v>8.933912000000001</v>
+        <v>8.933911999999999</v>
       </c>
       <c r="I7">
-        <v>0.03255070701549811</v>
+        <v>0.03649214922944397</v>
       </c>
       <c r="J7">
-        <v>0.03562677812383096</v>
+        <v>0.043147870939245</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.58864</v>
+        <v>14.70156066666667</v>
       </c>
       <c r="N7">
-        <v>34.76592</v>
+        <v>44.104682</v>
       </c>
       <c r="O7">
-        <v>0.5388999848867084</v>
+        <v>0.6323891632679</v>
       </c>
       <c r="P7">
-        <v>0.540753405023117</v>
+        <v>0.6340185968245738</v>
       </c>
       <c r="Q7">
-        <v>34.51062998656001</v>
+        <v>43.78081641955377</v>
       </c>
       <c r="R7">
-        <v>310.59566987904</v>
+        <v>394.027347775984</v>
       </c>
       <c r="S7">
-        <v>0.01754157551870361</v>
+        <v>0.02307723971705541</v>
       </c>
       <c r="T7">
-        <v>0.01926530158046469</v>
+        <v>0.02735655258886792</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.297988333333333</v>
+        <v>1.675036</v>
       </c>
       <c r="H8">
-        <v>3.893965</v>
+        <v>5.025107999999999</v>
       </c>
       <c r="I8">
-        <v>0.01418766088625051</v>
+        <v>0.02052594552420851</v>
       </c>
       <c r="J8">
-        <v>0.01552840760877916</v>
+        <v>0.02426962694951188</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.694494000000001</v>
+        <v>8.366847333333332</v>
       </c>
       <c r="N8">
-        <v>29.083482</v>
+        <v>25.100542</v>
       </c>
       <c r="O8">
-        <v>0.4508175825708872</v>
+        <v>0.3599008094639652</v>
       </c>
       <c r="P8">
-        <v>0.4523680639381478</v>
+        <v>0.3608281410662089</v>
       </c>
       <c r="Q8">
-        <v>12.58334010957</v>
+        <v>14.01477048983733</v>
       </c>
       <c r="R8">
-        <v>113.25006098613</v>
+        <v>126.132934408536</v>
       </c>
       <c r="S8">
-        <v>0.006396046983074988</v>
+        <v>0.007387304409175899</v>
       </c>
       <c r="T8">
-        <v>0.007024555686025832</v>
+        <v>0.008757164376562735</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.297988333333333</v>
+        <v>1.675036</v>
       </c>
       <c r="H9">
-        <v>3.893965</v>
+        <v>5.025107999999999</v>
       </c>
       <c r="I9">
-        <v>0.01418766088625051</v>
+        <v>0.02052594552420851</v>
       </c>
       <c r="J9">
-        <v>0.01552840760877916</v>
+        <v>0.02426962694951188</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.221116</v>
+        <v>0.17924</v>
       </c>
       <c r="N9">
-        <v>0.442232</v>
+        <v>0.35848</v>
       </c>
       <c r="O9">
-        <v>0.01028243254240441</v>
+        <v>0.007710027268134825</v>
       </c>
       <c r="P9">
-        <v>0.006878531038735148</v>
+        <v>0.005153262109217186</v>
       </c>
       <c r="Q9">
-        <v>0.2870059883133333</v>
+        <v>0.30023345264</v>
       </c>
       <c r="R9">
-        <v>1.72203592988</v>
+        <v>1.80140071584</v>
       </c>
       <c r="S9">
-        <v>0.0001458836659973804</v>
+        <v>0.0001582555996958976</v>
       </c>
       <c r="T9">
-        <v>0.0001068126337191185</v>
+        <v>0.0001250677489637558</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.297988333333333</v>
+        <v>1.675036</v>
       </c>
       <c r="H10">
-        <v>3.893965</v>
+        <v>5.025107999999999</v>
       </c>
       <c r="I10">
-        <v>0.01418766088625051</v>
+        <v>0.02052594552420851</v>
       </c>
       <c r="J10">
-        <v>0.01552840760877916</v>
+        <v>0.02426962694951188</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.58864</v>
+        <v>14.70156066666667</v>
       </c>
       <c r="N10">
-        <v>34.76592</v>
+        <v>44.104682</v>
       </c>
       <c r="O10">
-        <v>0.5388999848867084</v>
+        <v>0.6323891632679</v>
       </c>
       <c r="P10">
-        <v>0.540753405023117</v>
+        <v>0.6340185968245738</v>
       </c>
       <c r="Q10">
-        <v>15.0419195192</v>
+        <v>24.62564337285066</v>
       </c>
       <c r="R10">
-        <v>135.3772756728</v>
+        <v>221.630790355656</v>
       </c>
       <c r="S10">
-        <v>0.007645730237178146</v>
+        <v>0.01298038551533672</v>
       </c>
       <c r="T10">
-        <v>0.008397039289034208</v>
+        <v>0.01538739482398538</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>23.69742</v>
+        <v>37.764002</v>
       </c>
       <c r="H11">
-        <v>47.39484</v>
+        <v>75.52800400000001</v>
       </c>
       <c r="I11">
-        <v>0.2590246385155368</v>
+        <v>0.4627613065200399</v>
       </c>
       <c r="J11">
-        <v>0.1890017999835311</v>
+        <v>0.3647755394155193</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.694494000000001</v>
+        <v>8.366847333333332</v>
       </c>
       <c r="N11">
-        <v>29.083482</v>
+        <v>25.100542</v>
       </c>
       <c r="O11">
-        <v>0.4508175825708872</v>
+        <v>0.3599008094639652</v>
       </c>
       <c r="P11">
-        <v>0.4523680639381478</v>
+        <v>0.3608281410662089</v>
       </c>
       <c r="Q11">
-        <v>229.73449600548</v>
+        <v>315.9656394296946</v>
       </c>
       <c r="R11">
-        <v>1378.40697603288</v>
+        <v>1895.793836578168</v>
       </c>
       <c r="S11">
-        <v>0.1167728613618722</v>
+        <v>0.1665481688051645</v>
       </c>
       <c r="T11">
-        <v>0.08549837833937504</v>
+        <v>0.1316212797937254</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>23.69742</v>
+        <v>37.764002</v>
       </c>
       <c r="H12">
-        <v>47.39484</v>
+        <v>75.52800400000001</v>
       </c>
       <c r="I12">
-        <v>0.2590246385155368</v>
+        <v>0.4627613065200399</v>
       </c>
       <c r="J12">
-        <v>0.1890017999835311</v>
+        <v>0.3647755394155193</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.221116</v>
+        <v>0.17924</v>
       </c>
       <c r="N12">
-        <v>0.442232</v>
+        <v>0.35848</v>
       </c>
       <c r="O12">
-        <v>0.01028243254240441</v>
+        <v>0.007710027268134825</v>
       </c>
       <c r="P12">
-        <v>0.006878531038735148</v>
+        <v>0.005153262109217186</v>
       </c>
       <c r="Q12">
-        <v>5.23987872072</v>
+        <v>6.768819718480001</v>
       </c>
       <c r="R12">
-        <v>20.95951488288</v>
+        <v>27.07527887392001</v>
       </c>
       <c r="S12">
-        <v>0.002663403372356693</v>
+        <v>0.003567902291907205</v>
       </c>
       <c r="T12">
-        <v>0.001300054747563531</v>
+        <v>0.001879783965639256</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>23.69742</v>
+        <v>37.764002</v>
       </c>
       <c r="H13">
-        <v>47.39484</v>
+        <v>75.52800400000001</v>
       </c>
       <c r="I13">
-        <v>0.2590246385155368</v>
+        <v>0.4627613065200399</v>
       </c>
       <c r="J13">
-        <v>0.1890017999835311</v>
+        <v>0.3647755394155193</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.58864</v>
+        <v>14.70156066666667</v>
       </c>
       <c r="N13">
-        <v>34.76592</v>
+        <v>44.104682</v>
       </c>
       <c r="O13">
-        <v>0.5388999848867084</v>
+        <v>0.6323891632679</v>
       </c>
       <c r="P13">
-        <v>0.540753405023117</v>
+        <v>0.6340185968245738</v>
       </c>
       <c r="Q13">
-        <v>274.6208693088</v>
+        <v>555.1897664191214</v>
       </c>
       <c r="R13">
-        <v>1647.7252158528</v>
+        <v>3331.138598514728</v>
       </c>
       <c r="S13">
-        <v>0.1395883737813079</v>
+        <v>0.2926452354229682</v>
       </c>
       <c r="T13">
-        <v>0.1022033668965926</v>
+        <v>0.2312744756561546</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.2722813333333333</v>
+        <v>0.345847</v>
       </c>
       <c r="H14">
-        <v>0.816844</v>
+        <v>1.037541</v>
       </c>
       <c r="I14">
-        <v>0.002976170989972538</v>
+        <v>0.004238020365956876</v>
       </c>
       <c r="J14">
-        <v>0.003257421827054327</v>
+        <v>0.005010983448479815</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>9.694494000000001</v>
+        <v>8.366847333333332</v>
       </c>
       <c r="N14">
-        <v>29.083482</v>
+        <v>25.100542</v>
       </c>
       <c r="O14">
-        <v>0.4508175825708872</v>
+        <v>0.3599008094639652</v>
       </c>
       <c r="P14">
-        <v>0.4523680639381478</v>
+        <v>0.3608281410662089</v>
       </c>
       <c r="Q14">
-        <v>2.639629752312</v>
+        <v>2.893649049691333</v>
       </c>
       <c r="R14">
-        <v>23.756667770808</v>
+        <v>26.042841447222</v>
       </c>
       <c r="S14">
-        <v>0.001341710211017024</v>
+        <v>0.00152526696023265</v>
       </c>
       <c r="T14">
-        <v>0.00147355360533443</v>
+        <v>0.001808103842628512</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,46 +1346,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.2722813333333333</v>
+        <v>0.345847</v>
       </c>
       <c r="H15">
-        <v>0.816844</v>
+        <v>1.037541</v>
       </c>
       <c r="I15">
-        <v>0.002976170989972538</v>
+        <v>0.004238020365956876</v>
       </c>
       <c r="J15">
-        <v>0.003257421827054327</v>
+        <v>0.005010983448479815</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.221116</v>
+        <v>0.17924</v>
       </c>
       <c r="N15">
-        <v>0.442232</v>
+        <v>0.35848</v>
       </c>
       <c r="O15">
-        <v>0.01028243254240441</v>
+        <v>0.007710027268134825</v>
       </c>
       <c r="P15">
-        <v>0.006878531038735148</v>
+        <v>0.005153262109217186</v>
       </c>
       <c r="Q15">
-        <v>0.06020575930133332</v>
+        <v>0.06198961628000001</v>
       </c>
       <c r="R15">
-        <v>0.361234555808</v>
+        <v>0.37193769768</v>
       </c>
       <c r="S15">
-        <v>3.060227743905357E-05</v>
+        <v>3.267525258443824E-05</v>
       </c>
       <c r="T15">
-        <v>2.240627714364655E-05</v>
+        <v>2.58229111349655E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.2722813333333333</v>
+        <v>0.345847</v>
       </c>
       <c r="H16">
-        <v>0.816844</v>
+        <v>1.037541</v>
       </c>
       <c r="I16">
-        <v>0.002976170989972538</v>
+        <v>0.004238020365956876</v>
       </c>
       <c r="J16">
-        <v>0.003257421827054327</v>
+        <v>0.005010983448479815</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>11.58864</v>
+        <v>14.70156066666667</v>
       </c>
       <c r="N16">
-        <v>34.76592</v>
+        <v>44.104682</v>
       </c>
       <c r="O16">
-        <v>0.5388999848867084</v>
+        <v>0.6323891632679</v>
       </c>
       <c r="P16">
-        <v>0.540753405023117</v>
+        <v>0.6340185968245738</v>
       </c>
       <c r="Q16">
-        <v>3.15537035072</v>
+        <v>5.084490651884667</v>
       </c>
       <c r="R16">
-        <v>28.39833315648</v>
+        <v>45.760415866962</v>
       </c>
       <c r="S16">
-        <v>0.001603858501516461</v>
+        <v>0.002680078153139788</v>
       </c>
       <c r="T16">
-        <v>0.00176146194457625</v>
+        <v>0.003177056694716337</v>
       </c>
     </row>
   </sheetData>
